--- a/Inputs/SF_sigmaobs.xlsx
+++ b/Inputs/SF_sigmaobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7AF6B-3E80-874C-86E6-54F68A8B4284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F96BD9-361F-E04B-A74D-4B348D676DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="2140" windowWidth="29440" windowHeight="19500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="460" windowWidth="29440" windowHeight="19500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PUI Details" sheetId="7" r:id="rId5"/>
     <sheet name="Internal" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9654,7 +9654,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
